--- a/ApplyFormulasToGroupOfFiles_SameName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_SameName_v0.1/workspace/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>Val_A</t>
   </si>
@@ -45,22 +45,28 @@
     <t>Val_H</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\test_file.csv</t>
+    <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_SameName_v0.1\workspace\test_file.csv</t>
   </si>
   <si>
     <t>Formula 1</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_1\test_file.csv</t>
+    <t>Formula 2</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_2\test_file.csv</t>
+    <t>Formula 3</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_3\test_file.csv</t>
+    <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_SameName_v0.1\workspace\folder_1\test_file.csv</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_4\test_file.csv</t>
+    <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_SameName_v0.1\workspace\folder_2\test_file.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_SameName_v0.1\workspace\folder_3\test_file.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_SameName_v0.1\workspace\folder_4\test_file.csv</t>
   </si>
 </sst>
 </file>
@@ -392,18 +398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -411,40 +423,80 @@
         <f>file_0!ZZ1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>file_0!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>file_0!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>file_1!ZZ1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f>file_1!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>file_1!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>file_2!ZZ1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f>file_2!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>file_2!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>file_3!ZZ1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f>file_3!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>file_3!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>file_4!ZZ1</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>file_4!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>file_4!ZZ3</f>
         <v>0</v>
       </c>
     </row>
@@ -487,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>sum(C5:C9)</f>
+        <f>C9</f>
         <v>0</v>
       </c>
     </row>
@@ -516,6 +568,10 @@
       <c r="H2">
         <v>4.22</v>
       </c>
+      <c r="ZZ2">
+        <f>C8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -541,6 +597,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>sum(C9,C8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -3936,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>sum(C5:C9)</f>
+        <f>C9</f>
         <v>0</v>
       </c>
     </row>
@@ -3965,6 +4025,10 @@
       <c r="H2">
         <v>4.22</v>
       </c>
+      <c r="ZZ2">
+        <f>C8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -3990,6 +4054,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>sum(C9,C8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -7385,7 +7453,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>sum(C5:C9)</f>
+        <f>C9</f>
         <v>0</v>
       </c>
     </row>
@@ -7414,6 +7482,10 @@
       <c r="H2">
         <v>4.22</v>
       </c>
+      <c r="ZZ2">
+        <f>C8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -7439,6 +7511,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>sum(C9,C8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -10834,7 +10910,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>sum(C5:C9)</f>
+        <f>C9</f>
         <v>0</v>
       </c>
     </row>
@@ -10863,6 +10939,10 @@
       <c r="H2">
         <v>4.22</v>
       </c>
+      <c r="ZZ2">
+        <f>C8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -10888,6 +10968,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>sum(C9,C8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -14283,7 +14367,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>sum(C5:C9)</f>
+        <f>C9</f>
         <v>0</v>
       </c>
     </row>
@@ -14312,6 +14396,10 @@
       <c r="H2">
         <v>4.22</v>
       </c>
+      <c r="ZZ2">
+        <f>C8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -14337,6 +14425,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>sum(C9,C8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">

--- a/ApplyFormulasToGroupOfFiles_SameName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_SameName_v0.1/workspace/result.xlsx
@@ -599,7 +599,7 @@
         <v>4.16</v>
       </c>
       <c r="ZZ3">
-        <f>sum(C9,C8)</f>
+        <f>C9+C8</f>
         <v>0</v>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
         <v>4.16</v>
       </c>
       <c r="ZZ3">
-        <f>sum(C9,C8)</f>
+        <f>C9+C8</f>
         <v>0</v>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
         <v>4.16</v>
       </c>
       <c r="ZZ3">
-        <f>sum(C9,C8)</f>
+        <f>C9+C8</f>
         <v>0</v>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
         <v>4.16</v>
       </c>
       <c r="ZZ3">
-        <f>sum(C9,C8)</f>
+        <f>C9+C8</f>
         <v>0</v>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
         <v>4.16</v>
       </c>
       <c r="ZZ3">
-        <f>sum(C9,C8)</f>
+        <f>C9+C8</f>
         <v>0</v>
       </c>
     </row>
